--- a/data/trans_dic/P10_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,26</t>
+          <t>0,75; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,49</t>
+          <t>1,02; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,99</t>
+          <t>1,12; 4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,73</t>
+          <t>1,57; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,89</t>
+          <t>2,81; 6,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,03</t>
+          <t>1,06; 4,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,29</t>
+          <t>2,93; 11,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,6</t>
+          <t>1,39; 3,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,48</t>
+          <t>2,21; 4,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,47</t>
+          <t>1,33; 3,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,9</t>
+          <t>1,67; 5,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,01</t>
+          <t>1,57; 4,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,16</t>
+          <t>1,55; 4,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,7</t>
+          <t>2,28; 5,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,85</t>
+          <t>1,22; 5,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,23</t>
+          <t>4,43; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,12</t>
+          <t>3,36; 7,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,68</t>
+          <t>2,66; 5,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,57</t>
+          <t>4,0; 9,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,52</t>
+          <t>3,08; 5,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,11</t>
+          <t>2,75; 4,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,07</t>
+          <t>2,78; 5,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,65</t>
+          <t>3,15; 6,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,19</t>
+          <t>2,64; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,47</t>
+          <t>3,04; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,14</t>
+          <t>2,25; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,71</t>
+          <t>3,6; 7,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,02</t>
+          <t>3,74; 6,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,89</t>
+          <t>8,91; 13,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,01</t>
+          <t>4,21; 7,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,27</t>
+          <t>3,98; 7,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,84</t>
+          <t>3,64; 5,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,45</t>
+          <t>6,46; 9,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,84</t>
+          <t>3,69; 5,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,7</t>
+          <t>4,07; 6,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,89</t>
+          <t>3,01; 7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,1</t>
+          <t>4,71; 9,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,41</t>
+          <t>4,53; 8,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,4</t>
+          <t>4,33; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,74</t>
+          <t>7,47; 12,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,05</t>
+          <t>10,33; 16,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,32</t>
+          <t>7,52; 12,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,87</t>
+          <t>7,11; 12,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,82</t>
+          <t>5,66; 8,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,71</t>
+          <t>8,08; 11,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,74</t>
+          <t>6,61; 9,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,65</t>
+          <t>6,16; 9,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,99</t>
+          <t>5,15; 10,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,25</t>
+          <t>6,81; 12,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,34</t>
+          <t>3,79; 8,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,15</t>
+          <t>5,96; 10,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,21</t>
+          <t>7,2; 13,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,86; 23,84</t>
+          <t>15,67; 23,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,76; 19,75</t>
+          <t>12,73; 19,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,15</t>
+          <t>10,63; 14,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,04</t>
+          <t>6,72; 10,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,24</t>
+          <t>12,21; 17,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,37</t>
+          <t>8,95; 13,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 11,68</t>
+          <t>8,68; 11,65</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,91</t>
+          <t>9,99; 16,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,38</t>
+          <t>13,6; 20,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,64</t>
+          <t>7,82; 12,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,0</t>
+          <t>7,3; 10,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,33</t>
+          <t>13,94; 19,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 30,46</t>
+          <t>23,49; 30,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,94</t>
+          <t>18,22; 24,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,83</t>
+          <t>12,05; 20,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 17,06</t>
+          <t>12,79; 16,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,2; 25,03</t>
+          <t>20,2; 24,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,72</t>
+          <t>14,46; 18,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,93</t>
+          <t>11,55; 16,02</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,5; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,8</t>
+          <t>5,07; 6,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,61; 9,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,77; 15,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,84</t>
+          <t>9,6; 11,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,28; 7,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,71; 11,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,45; 8,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,16</t>
+          <t>7,82; 9,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,6</t>
+          <t>0,68; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,82</t>
+          <t>1,02; 3,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,03</t>
+          <t>1,01; 3,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,71</t>
+          <t>1,6; 4,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,84</t>
+          <t>2,89; 6,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,01</t>
+          <t>1,01; 4,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,47</t>
+          <t>1,47; 3,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,52</t>
+          <t>2,19; 4,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,35</t>
+          <t>1,4; 3,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,08</t>
+          <t>1,56; 4,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,21</t>
+          <t>1,57; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,54</t>
+          <t>2,19; 5,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,46</t>
+          <t>4,18; 8,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,59</t>
+          <t>3,49; 7,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,94</t>
+          <t>2,51; 5,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,51</t>
+          <t>3,2; 5,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,92</t>
+          <t>2,78; 5,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,03</t>
+          <t>2,86; 5,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,97</t>
+          <t>2,53; 6,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,49</t>
+          <t>3,1; 6,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,16</t>
+          <t>2,08; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,96</t>
+          <t>3,79; 7,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,75</t>
+          <t>8,61; 13,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,89</t>
+          <t>4,38; 8,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,94</t>
+          <t>3,56; 6,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,51</t>
+          <t>6,41; 9,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,86</t>
+          <t>3,55; 5,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,04</t>
+          <t>3,05; 7,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,3</t>
+          <t>4,37; 8,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,63</t>
+          <t>4,52; 8,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,46</t>
+          <t>7,43; 12,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,16</t>
+          <t>10,08; 15,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,18</t>
+          <t>7,58; 12,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,9</t>
+          <t>5,79; 8,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,72</t>
+          <t>8,05; 11,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,6</t>
+          <t>6,54; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,53</t>
+          <t>5,12; 10,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 12,38</t>
+          <t>6,71; 12,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,26</t>
+          <t>3,81; 8,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,03</t>
+          <t>7,17; 13,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,65</t>
+          <t>16,26; 23,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 19,48</t>
+          <t>12,67; 19,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,78</t>
+          <t>6,86; 10,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,35</t>
+          <t>12,29; 17,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 13,36</t>
+          <t>9,01; 13,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,08</t>
+          <t>10,34; 15,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,6; 20,6</t>
+          <t>13,55; 20,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 12,79</t>
+          <t>7,92; 12,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 19,23</t>
+          <t>13,57; 19,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,14</t>
+          <t>23,78; 30,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,82</t>
+          <t>18,43; 24,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,93</t>
+          <t>12,73; 16,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,2; 24,72</t>
+          <t>19,91; 24,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,76</t>
+          <t>14,53; 18,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,98</t>
+          <t>4,49; 6,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,91; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,18</t>
+          <t>4,6; 6,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,53</t>
+          <t>7,55; 9,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,16</t>
+          <t>12,9; 15,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 11,78</t>
+          <t>9,56; 11,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,53</t>
+          <t>6,28; 7,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,2</t>
+          <t>9,68; 11,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 8,72</t>
+          <t>7,41; 8,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
